--- a/Database/BD Invetario.xlsx
+++ b/Database/BD Invetario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e\Desktop\Documentos JR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\GitHub\InventoryManagement\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D287178-4615-4685-BA77-E6C552814391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6196C-6073-419F-AE23-9D055308651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD7CF8A4-A984-4517-AAE7-C3BF1866F2B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AD7CF8A4-A984-4517-AAE7-C3BF1866F2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -182,16 +182,16 @@
     <t>NOW() MYSQL</t>
   </si>
   <si>
-    <t>Troncoso</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>bodega x</t>
-  </si>
-  <si>
-    <t>administrador</t>
+    <t>Entregado</t>
+  </si>
+  <si>
+    <t>En Espera</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -731,11 +731,11 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <f>LEN(C13)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,11 +746,11 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D15" si="0">LEN(C14)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,11 +761,11 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
